--- a/xlsx/政治迫害_intext.xlsx
+++ b/xlsx/政治迫害_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>國家安全</t>
+    <t>国家安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%9B%BD%E5%AE%B6</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>屠殺</t>
+    <t>屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%85%E6%B8%85</t>
   </si>
   <si>
-    <t>肅清</t>
+    <t>肃清</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E8%AD%A6%E5%AF%9F</t>
